--- a/September/Requisition of Tulip-2/05.09.19 Requisition of Tulip-2.xlsx
+++ b/September/Requisition of Tulip-2/05.09.19 Requisition of Tulip-2.xlsx
@@ -1010,7 +1010,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomRight" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
